--- a/ESPN sports website/IPL/Sunrisers Hyderabad/Shashank Singh.xlsx
+++ b/ESPN sports website/IPL/Sunrisers Hyderabad/Shashank Singh.xlsx
@@ -480,31 +480,31 @@
         <v>Shashank Singh</v>
       </c>
       <c r="C3" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" t="str">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>107.14</v>
+        <v>166.66</v>
       </c>
       <c r="H3" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>May 01, 2022</v>
+        <v>May 05, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Kings won by 13 runs</v>
+        <v>Capitals won by 21 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Shashank Singh</v>
       </c>
       <c r="C4" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="str">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>166.66</v>
+        <v>107.14</v>
       </c>
       <c r="H4" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J4" t="str">
-        <v>May 05, 2022</v>
+        <v>May 01, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 21 runs</v>
+        <v>Super Kings won by 13 runs</v>
       </c>
     </row>
     <row r="5">
